--- a/inputs/klasseninfo.xlsx
+++ b/inputs/klasseninfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -514,7 +514,7 @@
     <col min="3" max="4" width="6.5" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="50" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/inputs/klasseninfo.xlsx
+++ b/inputs/klasseninfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>klas</t>
   </si>
@@ -97,6 +97,30 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>H3A</t>
+  </si>
+  <si>
+    <t>H3B</t>
+  </si>
+  <si>
+    <t>V3A</t>
+  </si>
+  <si>
+    <t>V3B</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>AN</t>
   </si>
 </sst>
 </file>
@@ -501,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -697,6 +721,86 @@
         <v>22</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
